--- a/Bases/Planilha de Movimentação.xlsx
+++ b/Bases/Planilha de Movimentação.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e531ce00f952463/Documentos/Vinícius/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{F8E719D0-7FA8-4229-A9A7-AEC34CABD6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52FDDE48-E20C-4C8E-AD7B-90840726B765}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{F8E719D0-7FA8-4229-A9A7-AEC34CABD6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B349589F-A1A7-4E9A-8F26-41F19881A44A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Renda Fixa" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Carteira</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>BTG</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,14 +192,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -205,17 +201,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -226,9 +246,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -240,6 +257,112 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -316,130 +439,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -460,57 +459,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF302857-702E-49A6-A0B1-1F66458C0BB3}" name="Tabela1" displayName="Tabela1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF302857-702E-49A6-A0B1-1F66458C0BB3}" name="Tabela1" displayName="Tabela1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:I4" xr:uid="{FF302857-702E-49A6-A0B1-1F66458C0BB3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C5956FB-D541-45AE-BE24-6BF3DBCCAE1D}" name="Carteira" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{0FA7D71F-B6F9-499A-90F1-BB8504D0C27D}" name="Papel" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FB27AEFA-DB00-452E-9CB1-D6B11E14718E}" name="Data Operação" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A3BC6326-9281-40E9-B432-D1ED2098BFAA}" name="Quantidade" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FFDA2E9B-045F-41E0-A728-A220762711F6}" name="Preço" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{CD36CEE9-3F70-4BA9-8C9A-78861EED0977}" name="Financeiro" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{5C5956FB-D541-45AE-BE24-6BF3DBCCAE1D}" name="Carteira" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0FA7D71F-B6F9-499A-90F1-BB8504D0C27D}" name="Papel" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{FB27AEFA-DB00-452E-9CB1-D6B11E14718E}" name="Data" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A3BC6326-9281-40E9-B432-D1ED2098BFAA}" name="Quantidade" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{FFDA2E9B-045F-41E0-A728-A220762711F6}" name="Preço" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{CD36CEE9-3F70-4BA9-8C9A-78861EED0977}" name="Financeiro" dataDxfId="23">
       <calculatedColumnFormula>Tabela1[[#This Row],[Quantidade]]*Tabela1[[#This Row],[Preço]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{26574522-9233-44F4-BCD0-E8100141B09B}" name="Taxa Operação" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{71C5D98A-1D70-4904-A551-92C4A14CEBAB}" name="Corretora" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{E16AE62B-D62A-46C8-BDF7-2C6596F6340C}" name="Observação" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{26574522-9233-44F4-BCD0-E8100141B09B}" name="Taxa Operação" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{71C5D98A-1D70-4904-A551-92C4A14CEBAB}" name="Corretora" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{E16AE62B-D62A-46C8-BDF7-2C6596F6340C}" name="Observação" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBB96E65-3DCB-4E01-AABC-71042E20417A}" name="Tabela13" displayName="Tabela13" ref="A1:I4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBB96E65-3DCB-4E01-AABC-71042E20417A}" name="Tabela13" displayName="Tabela13" ref="A1:I4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I4" xr:uid="{FBB96E65-3DCB-4E01-AABC-71042E20417A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B9F9C9E3-C931-4F07-801A-929C3A46CF37}" name="Carteira" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B5B95A87-CCD8-4472-898E-8032BF60527F}" name="Operação" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{702028A0-F507-4EEF-926C-9F9A66901E1A}" name="Fundo Investido" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{2A076703-F517-4756-A695-D3F6EAE6563B}" name="Financeiro" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{0DBD5D0D-D009-4579-AC51-B23DE58CD770}" name="Tipo de Liquidação" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7ED22C71-B902-4B9E-AB67-2983AEC1BDA4}" name="Data Operação" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C6280FA9-C088-4700-B822-C164243E1161}" name="Data Conversão" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E53886B3-B20D-4A96-A69F-FF678DEF8C9A}" name="Data Liquidação" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{C0AD906A-B606-4F31-809E-E2F1BB3FDCBE}" name="Observação" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B9F9C9E3-C931-4F07-801A-929C3A46CF37}" name="Carteira" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B5B95A87-CCD8-4472-898E-8032BF60527F}" name="Operação" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{702028A0-F507-4EEF-926C-9F9A66901E1A}" name="Fundo Investido" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2A076703-F517-4756-A695-D3F6EAE6563B}" name="Financeiro" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{0DBD5D0D-D009-4579-AC51-B23DE58CD770}" name="Tipo de Liquidação" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{7ED22C71-B902-4B9E-AB67-2983AEC1BDA4}" name="Data Operação" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C6280FA9-C088-4700-B822-C164243E1161}" name="Data Conversão" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{E53886B3-B20D-4A96-A69F-FF678DEF8C9A}" name="Data Liquidação" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C0AD906A-B606-4F31-809E-E2F1BB3FDCBE}" name="Observação" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87B850F3-59A4-4A3F-AB7B-BA664F42E19F}" name="Tabela14" displayName="Tabela14" ref="A1:H4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87B850F3-59A4-4A3F-AB7B-BA664F42E19F}" name="Tabela14" displayName="Tabela14" ref="A1:H4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:H4" xr:uid="{87B850F3-59A4-4A3F-AB7B-BA664F42E19F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{046CB16C-AE52-4311-A2D8-CB53DD04C979}" name="Carteira" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{44DA9AFC-5026-49D3-940E-7322AB2BF528}" name="Ticker" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{99441B50-A5F8-4991-A3A2-C93333ECE1B7}" name="Data Operação" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E899E94E-7E7B-46F2-9F89-C081EEF8691B}" name="Quantidade" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{6B8FDB2B-21F0-4D1C-BCF4-AEAD5D84F2CF}" name="Preço" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{E3368450-E59B-42A3-9FFC-A55043AC182E}" name="Financeiro" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{046CB16C-AE52-4311-A2D8-CB53DD04C979}" name="Carteira" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{44DA9AFC-5026-49D3-940E-7322AB2BF528}" name="Ticker" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{99441B50-A5F8-4991-A3A2-C93333ECE1B7}" name="Data" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E899E94E-7E7B-46F2-9F89-C081EEF8691B}" name="Quantidade" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6B8FDB2B-21F0-4D1C-BCF4-AEAD5D84F2CF}" name="Preço" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E3368450-E59B-42A3-9FFC-A55043AC182E}" name="Financeiro" dataDxfId="1">
       <calculatedColumnFormula>Tabela14[[#This Row],[Quantidade]]*Tabela14[[#This Row],[Preço]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00578A4C-2060-4B29-858E-470E9431C6AE}" name="Corretora"/>
-    <tableColumn id="9" xr3:uid="{C19AE5E3-3021-4F80-B288-A4595EFFC121}" name="Observação" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{C19AE5E3-3021-4F80-B288-A4595EFFC121}" name="Observação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,131 +834,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B701CC7-1C97-48A6-8D2F-BD9A94345AB3}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="4" customWidth="1"/>
     <col min="4" max="7" width="22.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>45649</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>4300</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <f>Tabela1[[#This Row],[Quantidade]]*Tabela1[[#This Row],[Preço]]</f>
         <v>430000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.08</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>45621</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>100000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <f>Tabela1[[#This Row],[Quantidade]]*Tabela1[[#This Row],[Preço]]</f>
         <v>500000</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>34930</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1000000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <f>Tabela1[[#This Row],[Quantidade]]*Tabela1[[#This Row],[Preço]]</f>
         <v>1000000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.97</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1006,13 +1005,13 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1020,7 +1019,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1035,19 +1034,19 @@
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>45625</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>45625</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>45625</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1062,20 +1061,20 @@
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>45624</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <f>Tabela13[[#This Row],[Data Operação]]+30</f>
         <v>45654</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>45655</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1090,13 +1089,13 @@
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>45628</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>45628</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>45628</v>
       </c>
       <c r="I4" s="1"/>
@@ -1113,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86EE91-2B82-4292-8FC2-A1B660BC24F5}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1156,13 +1155,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>45625</v>
       </c>
       <c r="D2" s="1">
@@ -1181,13 +1180,13 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>45624</v>
       </c>
       <c r="D3" s="1">
@@ -1200,19 +1199,19 @@
         <f>Tabela14[[#This Row],[Quantidade]]*Tabela14[[#This Row],[Preço]]</f>
         <v>120000</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>45628</v>
       </c>
       <c r="D4" s="1">
